--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/AngVel/result2_csv/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/AngVel/result2_csv/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\E\AngVel\result2_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C375DE6-948A-4364-851C-3F87C5148450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52236B17-85A9-4CC3-AE2B-BD47D8D050E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{A16E7C9B-5147-4BCC-ACD3-0077A2814E09}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{BC2040F2-AF1E-44E5-8EF7-23B189AAF8A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1873EB99-E35F-4E42-A75B-B0BEC6CF225A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DFE5B00-D5A5-4007-A34B-57CADA30F3E0}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/AngVel/result2_csv/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/AngVel/result2_csv/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\E\AngVel\result2_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52236B17-85A9-4CC3-AE2B-BD47D8D050E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D111C0-4DE3-4429-A654-D8E0649058F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{BC2040F2-AF1E-44E5-8EF7-23B189AAF8A0}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{1FE2C5DC-DD78-41E4-A987-2D291A90C755}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DFE5B00-D5A5-4007-A34B-57CADA30F3E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DF44B8-05E3-4ADC-8F82-0677246B0652}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
